--- a/medicine/Maladies infectieuses/Scénarios_d'Afrique/Scénarios_d'Afrique.xlsx
+++ b/medicine/Maladies infectieuses/Scénarios_d'Afrique/Scénarios_d'Afrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sc%C3%A9narios_d%27Afrique</t>
+          <t>Scénarios_d'Afrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scénarios du Sahel, rebaptisés les scénarios d'Afrique, sont un projet de sensibilisation et d'éducation de la jeunesse africaine au problème du sida. Né en 1997 et inspiré du projet français 3 000 Scénarios contre un virus du CRIPS le projet compte aujourd'hui 33 films.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sc%C3%A9narios_d%27Afrique</t>
+          <t>Scénarios_d'Afrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scénarios sont issus d'un concours ouvert aux jeunes [réf. souhaitée] [pourquoi ?]. Les scénarios primés sont adaptés en film. Plus de 145 000 jeunes originaires de 47 pays africains ont déjà pris part à ce concours. 
 Les films sont diffusés sur les chaînes locales de télévision dans presque tous les pays d'Afrique subsaharienne. Les films sont également recueillis dans des coffrets DVD de compilation pour l'usage des organisations et des écoles.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sc%C3%A9narios_d%27Afrique</t>
+          <t>Scénarios_d'Afrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,48 @@
           <t>Les films</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'une durée allant de 2 à 15 minutes et traduits en 28 langues, les films sont réalisés par les grands noms du cinéma africain : Cheick Oumar Sissoko du Mali, Newton Aduaka du Nigeria, Idrissa Ouedraogo et Fanta Régina Nacro du Burkina Faso et Abderrahmane Sissako de Mauritanie. Tous ont remporté dans leur carrière le grand prix du Festival Panafricain du Cinéma FESPACO. [réf. souhaitée]
-Liste des films
-La Boutique, d'Idrissa Ouedraogo, sur une idée d'Olga Ouedraogo (Burkina Faso).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une durée allant de 2 à 15 minutes et traduits en 28 langues, les films sont réalisés par les grands noms du cinéma africain : Cheick Oumar Sissoko du Mali, Newton Aduaka du Nigeria, Idrissa Ouedraogo et Fanta Régina Nacro du Burkina Faso et Abderrahmane Sissako de Mauritanie. Tous ont remporté dans leur carrière le grand prix du Festival Panafricain du Cinéma FESPACO. [réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Scénarios_d'Afrique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sc%C3%A9narios_d%27Afrique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les films</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des films</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Boutique, d'Idrissa Ouedraogo, sur une idée d'Olga Ouedraogo (Burkina Faso).
 Les Raisons d'un sourire, de Fanta Régina Nacro, sur une idée de Ndlangamandla Phindile et de Ndlangamandla Zanele (Swaziland) ; Léandrine Baganda (Zaïre) ; Sheikh Omar Taal (Gambie) ; Danga Essigué Désiré (Tchad) ; Samira Gomes Furtado (Cap-Vert ; Madiène Niang (Sénégal) ; Celestine Nnodim (Nigeria) ; Ninelle N’Siloulou (Congo-Brazzaville).
 Une volonté de fer, de Fanta Régina Nacro, sur une idée de Malick Diop Yade (Sénégal).
 Bon Voyage, de Newton Aduaka, sur une idée de Marcel C. Sourou Gninkinme (Bénin).
